--- a/RECORD/Record.xlsx
+++ b/RECORD/Record.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Achelouer\RECORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8269CDA-B5DF-4B45-815A-912242DF2A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E5637D-B913-4DCA-8814-D92127FCBDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网站所用技术历程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人技术历程（后期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +101,33 @@
   </si>
   <si>
     <t>开始记录个人网站！！简单的做了一些plan。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在项目进程中显示效果将以时间线为主，计划用canvas实现！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站开发历程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet1!A1</t>
+  </si>
+  <si>
+    <t>基本信息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canvas显示线条连接各个历程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用盒子模型搭建一个展示框（后期适应不同设备采用其他模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向滑动展示后面的信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +135,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +159,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,10 +248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,39 +275,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,6 +342,421 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500523</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604018</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38363</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9685D6F1-C81E-5430-DAF0-C7C72F9A5297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6434598" y="28575"/>
+          <a:ext cx="1084570" cy="1305188"/>
+          <a:chOff x="7587123" y="1922967"/>
+          <a:chExt cx="1084570" cy="1305188"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="任意多边形: 形状 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA7BD2B-75F3-08C2-E99D-1549594FB1CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7587123" y="1922967"/>
+            <a:ext cx="1084212" cy="650527"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 650527"/>
+              <a:gd name="connsiteX1" fmla="*/ 1084212 w 1084212"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 650527"/>
+              <a:gd name="connsiteX2" fmla="*/ 1084212 w 1084212"/>
+              <a:gd name="connsiteY2" fmla="*/ 650527 h 650527"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY3" fmla="*/ 650527 h 650527"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 650527"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1084212" h="650527">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1084212" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1084212" y="650527"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="650527"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+              <a:t>进度详情</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="任意多边形: 形状 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC32E641-83A1-E9EB-1456-C52C998EFB9A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7587481" y="2669530"/>
+            <a:ext cx="1084212" cy="223833"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 223833"/>
+              <a:gd name="connsiteX1" fmla="*/ 1084212 w 1084212"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 223833"/>
+              <a:gd name="connsiteX2" fmla="*/ 1084212 w 1084212"/>
+              <a:gd name="connsiteY2" fmla="*/ 223833 h 223833"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY3" fmla="*/ 223833 h 223833"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 223833"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1084212" h="223833">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1084212" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1084212" y="223833"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="223833"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+              <a:t>进度概况</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="任意多边形: 形状 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B728B4-39E3-B7EC-DE4D-9D6CA02AB81E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7587481" y="3001785"/>
+            <a:ext cx="1084212" cy="226370"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 226370"/>
+              <a:gd name="connsiteX1" fmla="*/ 1084212 w 1084212"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 226370"/>
+              <a:gd name="connsiteX2" fmla="*/ 1084212 w 1084212"/>
+              <a:gd name="connsiteY2" fmla="*/ 226370 h 226370"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY3" fmla="*/ 226370 h 226370"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1084212"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 226370"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1084212" h="226370">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1084212" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1084212" y="226370"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="226370"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" kern="1200"/>
+              <a:t>进度时间</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,11 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,111 +1049,109 @@
         <v>44783</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44784</v>
+        <v>44785</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44786</v>
+        <v>44787</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44787</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44790</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44792</v>
+        <v>44793</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44793</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44794</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44799</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44800</v>
+        <v>44801</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44801</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44802</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
         <v>44804</v>
       </c>
     </row>
@@ -693,155 +1165,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F05FB6-00F5-4E01-BBC1-BBD45A061F2E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="2.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="64.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="12" customWidth="1"/>
     <col min="6" max="6" width="42.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>0.5</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="9">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="17">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11">
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
@@ -871,6 +1345,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F4" location="Sheet1!A1" display="Sheet1!A1" xr:uid="{E4A1B5AB-36D7-4483-BD5C-A2E3BE5C856D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -890,4 +1367,64 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8EC03-FFE9-4483-9F97-3FDF713C3039}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.875" style="19"/>
+    <col min="3" max="3" width="3.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="12.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="23">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="24">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RECORD/Record.xlsx
+++ b/RECORD/Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Achelouer\RECORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E5637D-B913-4DCA-8814-D92127FCBDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F10771-DAE6-4B3D-A4D3-E292401C4E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,22 @@
   </si>
   <si>
     <t>纵向滑动展示后面的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加日志，读取本界面！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬浮目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -247,12 +263,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +349,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,26 +376,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,8 +1087,8 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,6 +1166,9 @@
       <c r="A12" s="2">
         <v>44794</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1163,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F05FB6-00F5-4E01-BBC1-BBD45A061F2E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,14 +1246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
@@ -1197,10 +1262,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="9">
@@ -1215,8 +1280,8 @@
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="9">
         <v>2</v>
       </c>
@@ -1229,8 +1294,8 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="9">
@@ -1242,13 +1307,13 @@
       <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="14">
         <v>2</v>
       </c>
@@ -1261,8 +1326,8 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="14">
         <v>3</v>
       </c>
@@ -1275,63 +1340,97 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>17</v>
+      <c r="A7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:B9"/>
+  <mergeCells count="9">
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="E2:E12">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1361,7 +1460,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E9</xm:sqref>
+          <xm:sqref>E2:E12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1373,49 +1472,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8EC03-FFE9-4483-9F97-3FDF713C3039}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.875" style="19"/>
-    <col min="3" max="3" width="3.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="12.875" style="19"/>
+    <col min="1" max="2" width="12.875" style="16"/>
+    <col min="3" max="3" width="3.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="12.875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24">
+      <c r="A2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="20">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="24">
+      <c r="A3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
     </row>
